--- a/data/trans_orig/Q03B_LAB-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_LAB-Edad-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7345947470294714</v>
+        <v>0.7242899572973176</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8547251623627745</v>
+        <v>0.871412547350673</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.129161868688301</v>
+        <v>1.131638810957736</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.782019809669871</v>
+        <v>1.782458009368451</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.946648998710558</v>
+        <v>1.925144128784997</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.055875567709245</v>
+        <v>2.055736855615182</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.283279767781549</v>
+        <v>1.28255862248946</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.413388568539345</v>
+        <v>1.420282257677244</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.621026304544342</v>
+        <v>1.611140652029271</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.002089238554554</v>
+        <v>0.9884322622458459</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.143418881601187</v>
+        <v>1.146407944838433</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.390757204328013</v>
+        <v>1.392997035442811</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.159103054043905</v>
+        <v>2.14193283660162</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.278491518541899</v>
+        <v>2.269856786026252</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.355575234728803</v>
+        <v>2.35067432754291</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.519264830496956</v>
+        <v>1.518090712301984</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.654861950759841</v>
+        <v>1.645653700894184</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.830038341424065</v>
+        <v>1.825598224407537</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.135073870512836</v>
+        <v>1.130909624587387</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.370077585928549</v>
+        <v>1.372865285395838</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.614278533691336</v>
+        <v>1.609620290096742</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.076650360841968</v>
+        <v>3.070860620361217</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.253508317678012</v>
+        <v>3.26074813825622</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.194150581449574</v>
+        <v>3.206489810336338</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.065168205724989</v>
+        <v>2.067153930904536</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.290364209057086</v>
+        <v>2.280350585660791</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.412717861745284</v>
+        <v>2.407782047713806</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.424306198315383</v>
+        <v>1.417743259157347</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.586427226798023</v>
+        <v>1.585332742609033</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.800355201678863</v>
+        <v>1.789636270200556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.411556053443087</v>
+        <v>3.419271415711934</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.587830959640407</v>
+        <v>3.57903882625555</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.544745613304183</v>
+        <v>3.541695736693868</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.31316995958694</v>
+        <v>2.301062688802319</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.507062548087144</v>
+        <v>2.50219847881365</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.626342817058989</v>
+        <v>2.630390078560285</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.131209514745468</v>
+        <v>1.136976644844214</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.648268585206536</v>
+        <v>1.642011896882164</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.827971200342576</v>
+        <v>1.842514148155544</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.000395511488525</v>
+        <v>3.979773942312233</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.123239315858513</v>
+        <v>4.126418529604884</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.731395827677045</v>
+        <v>3.739001628943846</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.626259523895213</v>
+        <v>2.643097454580157</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.921558552497493</v>
+        <v>2.937055728120357</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.806473116968077</v>
+        <v>2.810693426324951</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.380690851165812</v>
+        <v>1.392515843330293</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.898258139626907</v>
+        <v>1.900237425964017</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.066076355128609</v>
+        <v>2.082181182299395</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.393057438729842</v>
+        <v>4.372455809558794</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.464722986220114</v>
+        <v>4.453510987532353</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.067580067028131</v>
+        <v>4.06946686898049</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.925414908797421</v>
+        <v>2.933881623225495</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.189745745349672</v>
+        <v>3.185576839803671</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.035350627591644</v>
+        <v>3.032372063635977</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.175762782050682</v>
+        <v>1.183537092118211</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.372358576456541</v>
+        <v>1.380245339397134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.722137398035275</v>
+        <v>1.715442776282505</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.212070369225122</v>
+        <v>4.189676509494195</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>4.134992008164396</v>
+        <v>4.120415232815867</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.85337924134102</v>
+        <v>3.840387409253813</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.708470311274954</v>
+        <v>2.700488697421055</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.786642946319916</v>
+        <v>2.769656606031349</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.839429258866876</v>
+        <v>2.8419331667755</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.564894095682301</v>
+        <v>1.578331483182628</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.619051259704199</v>
+        <v>1.636479354883089</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.008704340086718</v>
+        <v>2.004103228239089</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.636957844894338</v>
+        <v>4.630658129491399</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.503243157571909</v>
+        <v>4.483522183514602</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>4.156803012534628</v>
+        <v>4.143796737776786</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3.051446623166649</v>
+        <v>3.049649166205165</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.068116030523765</v>
+        <v>3.0455179891998</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.080940964348727</v>
+        <v>3.07335225167959</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.163066722545376</v>
+        <v>1.170683927595838</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.281437322524488</v>
+        <v>1.260966544341945</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.553650902934291</v>
+        <v>1.54460580478011</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.023272713719297</v>
+        <v>4.013199348883165</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.000580972874692</v>
+        <v>4.030191090570884</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.704651706133</v>
+        <v>3.719420369970785</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.647242405496129</v>
+        <v>2.657854864717418</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.687391697569614</v>
+        <v>2.68057520194291</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.701225470993994</v>
+        <v>2.697304510557815</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.641296822164353</v>
+        <v>1.636081509762916</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.62321660414328</v>
+        <v>1.605334373476658</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.849683383777676</v>
+        <v>1.846781600120556</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.513900533183189</v>
+        <v>4.483788383751961</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.461029570886231</v>
+        <v>4.487611109507528</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.069200853429916</v>
+        <v>4.067561288421603</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.022029021920286</v>
+        <v>3.038640005489812</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.049631032711684</v>
+        <v>3.024048996518122</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.987254095295053</v>
+        <v>2.976661545413235</v>
       </c>
     </row>
     <row r="19">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.055119334249637</v>
+        <v>1.04791402529699</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.246516489511011</v>
+        <v>1.241344025813287</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.528384738705133</v>
+        <v>1.5401459335681</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.347062439289295</v>
+        <v>3.37017649464152</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>3.287112704409386</v>
+        <v>3.25491995267132</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.590162086635623</v>
+        <v>3.596470448598159</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>2.329771057382301</v>
+        <v>2.319944706185732</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.365555370223141</v>
+        <v>2.364423932727594</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.678349482080206</v>
+        <v>2.670983250939033</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.44149431785335</v>
+        <v>1.451066204368235</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.701787941836388</v>
+        <v>1.699221385202283</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.914059427394088</v>
+        <v>1.895261502978911</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.813309821300256</v>
+        <v>3.821997059156449</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.740909076447398</v>
+        <v>3.705927661589928</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>4.043488357955175</v>
+        <v>4.041064301243939</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2.696446063885522</v>
+        <v>2.67814215872117</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.725523322256025</v>
+        <v>2.705576494919621</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>3.022886642598187</v>
+        <v>3.003992718232022</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8967093516862955</v>
+        <v>0.9173949835052463</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.021309074353046</v>
+        <v>1.019937685530311</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.086901259811203</v>
+        <v>1.100223137092593</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.621836567369955</v>
+        <v>2.606830476364911</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.082669055463447</v>
+        <v>2.069800937222913</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.454096700148403</v>
+        <v>2.44308621189645</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.987101058611678</v>
+        <v>1.996649042990607</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.71407559747695</v>
+        <v>1.716077296525678</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.948014404088517</v>
+        <v>1.962371588991058</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.322155672930974</v>
+        <v>1.33684260655968</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.45918079228455</v>
+        <v>1.475738796148398</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.386226476834269</v>
+        <v>1.388348743483377</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.274889885046814</v>
+        <v>3.240335091130777</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.52066243117158</v>
+        <v>2.510474924128991</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.880153566440717</v>
+        <v>2.861711242701586</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.432781373442534</v>
+        <v>2.443446265084956</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.03059294688451</v>
+        <v>2.031624792122595</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.260588363797103</v>
+        <v>2.258109417902118</v>
       </c>
     </row>
     <row r="25">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.145404483415161</v>
+        <v>1.153428295596955</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.389394342612992</v>
+        <v>1.386569722126838</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.63474523908511</v>
+        <v>1.6362844884082</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.474423732102193</v>
+        <v>3.471078312616116</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>3.486383428978086</v>
+        <v>3.495000951832664</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>3.423576153990554</v>
+        <v>3.41812592478227</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>2.34767509448155</v>
+        <v>2.34450547994658</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>2.472920167314253</v>
+        <v>2.479217628407039</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>2.574673789206053</v>
+        <v>2.573436702887179</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.273161238974792</v>
+        <v>1.282837732001741</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.501974692271378</v>
+        <v>1.499674930946184</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.738136889652747</v>
+        <v>1.744077322549727</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.654077673223283</v>
+        <v>3.637341718750594</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>3.642527230377398</v>
+        <v>3.649517707046703</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>3.564638205125299</v>
+        <v>3.559178749879329</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>2.468764757836584</v>
+        <v>2.47103897222979</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>2.583084670326666</v>
+        <v>2.591248360608509</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>2.675633787433281</v>
+        <v>2.672687914897995</v>
       </c>
     </row>
     <row r="28">
